--- a/data/trans_orig/ip24_2023_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ip24_2023_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB2A2C24-1E50-4D08-84CD-F8FC1F8B4048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D1E2A2C-E9A5-4293-84E5-9AB73F1C53DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AA41E2EE-A289-4B56-B162-2243C2132CB7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E8BC5BD-D5AF-44C1-9744-357870679CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -101,55 +101,55 @@
     <t>7,0%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
   <si>
     <t>94,95%</t>
   </si>
   <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
   </si>
   <si>
     <t>93,92%</t>
   </si>
   <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -158,55 +158,55 @@
     <t>11,12%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
   </si>
   <si>
     <t>7,46%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
   </si>
   <si>
     <t>9,37%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
   </si>
   <si>
     <t>88,88%</t>
   </si>
   <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>92,54%</t>
   </si>
   <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>90,63%</t>
   </si>
   <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -215,109 +215,109 @@
     <t>20,01%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
   </si>
   <si>
     <t>13,14%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
   </si>
   <si>
     <t>16,81%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
   </si>
   <si>
     <t>79,99%</t>
   </si>
   <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
   </si>
   <si>
     <t>86,86%</t>
   </si>
   <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
   </si>
   <si>
     <t>83,19%</t>
   </si>
   <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
   </si>
   <si>
     <t>87,07%</t>
   </si>
   <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
   </si>
   <si>
     <t>91,42%</t>
   </si>
   <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -732,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DA5495-8B5A-4667-AA35-0540DB2E9DE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9E34F9-CB68-44CE-8A27-120F97D82778}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/ip24_2023_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ip24_2023_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D1E2A2C-E9A5-4293-84E5-9AB73F1C53DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8837A1BC-9E97-4B12-BDA7-0E8C59869773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E8BC5BD-D5AF-44C1-9744-357870679CA5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A72F9749-36D1-41BD-AA34-FE02154FE4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Menores que no realizan actividad física en su tiempo libre en 2023 (Tasa respuesta: 99,38%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,259 +65,238 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -732,8 +711,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9E34F9-CB68-44CE-8A27-120F97D82778}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986A0CAF-71A4-413A-BE7D-60C93B0F1904}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -850,96 +829,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2590</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>4271</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>6861</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="D5" s="7">
+        <v>52088</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>56796</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>108883</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -948,151 +931,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54678</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>61067</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>115744</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D7" s="7">
-        <v>4048</v>
+        <v>33906</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="I7" s="7">
-        <v>2585</v>
+        <v>56484</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="N7" s="7">
-        <v>6633</v>
+        <v>90390</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>78</v>
+        <v>587</v>
       </c>
       <c r="D8" s="7">
-        <v>53821</v>
+        <v>424277</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>65</v>
+        <v>577</v>
       </c>
       <c r="I8" s="7">
-        <v>48617</v>
+        <v>457563</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>143</v>
+        <v>1164</v>
       </c>
       <c r="N8" s="7">
-        <v>102438</v>
+        <v>881841</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1101,153 +1086,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>82</v>
+        <v>639</v>
       </c>
       <c r="D9" s="7">
-        <v>57869</v>
+        <v>458183</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>650</v>
       </c>
       <c r="I9" s="7">
-        <v>51202</v>
+        <v>514047</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>151</v>
+        <v>1289</v>
       </c>
       <c r="N9" s="7">
-        <v>109071</v>
+        <v>972231</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>54474</v>
+        <v>19351</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7">
-        <v>33380</v>
+        <v>36035</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="N10" s="7">
-        <v>87854</v>
+        <v>55386</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>577</v>
+        <v>197</v>
       </c>
       <c r="D11" s="7">
-        <v>435391</v>
+        <v>130200</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>587</v>
+        <v>190</v>
       </c>
       <c r="I11" s="7">
-        <v>414240</v>
+        <v>146548</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1164</v>
+        <v>387</v>
       </c>
       <c r="N11" s="7">
-        <v>849631</v>
+        <v>276748</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1256,153 +1241,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>650</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>489865</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>639</v>
+        <v>237</v>
       </c>
       <c r="I12" s="7">
-        <v>447620</v>
+        <v>182583</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1289</v>
+        <v>467</v>
       </c>
       <c r="N12" s="7">
-        <v>937485</v>
+        <v>332134</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="D13" s="7">
-        <v>34780</v>
+        <v>55847</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="I13" s="7">
-        <v>19892</v>
+        <v>96789</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="N13" s="7">
-        <v>54672</v>
+        <v>152636</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>190</v>
+        <v>849</v>
       </c>
       <c r="D14" s="7">
-        <v>139069</v>
+        <v>606565</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>197</v>
+        <v>845</v>
       </c>
       <c r="I14" s="7">
-        <v>131478</v>
+        <v>660908</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>387</v>
+        <v>1694</v>
       </c>
       <c r="N14" s="7">
-        <v>270546</v>
+        <v>1267473</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,216 +1396,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>237</v>
+        <v>938</v>
       </c>
       <c r="D15" s="7">
-        <v>173849</v>
+        <v>662412</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>969</v>
       </c>
       <c r="I15" s="7">
-        <v>151370</v>
+        <v>757697</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>467</v>
+        <v>1907</v>
       </c>
       <c r="N15" s="7">
-        <v>325218</v>
+        <v>1420109</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>124</v>
-      </c>
-      <c r="D16" s="7">
-        <v>93301</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>89</v>
-      </c>
-      <c r="I16" s="7">
-        <v>55857</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>213</v>
-      </c>
-      <c r="N16" s="7">
-        <v>149158</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>845</v>
-      </c>
-      <c r="D17" s="7">
-        <v>628281</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>850</v>
-      </c>
-      <c r="I17" s="7">
-        <v>595506</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1695</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1223788</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>969</v>
-      </c>
-      <c r="D18" s="7">
-        <v>721582</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>939</v>
-      </c>
-      <c r="I18" s="7">
-        <v>651363</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1908</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1372946</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
